--- a/WIP/Users/LucPT/FAP_TestViewpoint_Chat With Friends_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_Chat With Friends_v1.0_EN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -280,10 +280,10 @@
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$61</definedName>
-    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$24</definedName>
-    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$45</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$60</definedName>
+    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$23</definedName>
+    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$44</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$69</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -318,7 +318,7 @@
     <definedName name="ＰＤ">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$18</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
@@ -675,11 +675,6 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>Check display:
-- Window 7
--Browser: Firefox, Chrome, IE</t>
-  </si>
-  <si>
     <t>1.1.1.2</t>
   </si>
   <si>
@@ -988,12 +983,6 @@
     <t>Edit profile screen</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Input email in "Email" textbox</t>
-  </si>
-  <si>
     <t>Word that user input is displayed and  characters must be hide</t>
   </si>
   <si>
@@ -1034,9 +1023,6 @@
     <t>Friends List</t>
   </si>
   <si>
-    <t>Click "Friend List".</t>
-  </si>
-  <si>
     <t>Displays friend list.</t>
   </si>
   <si>
@@ -1049,19 +1035,32 @@
     <t>Displays chat box.</t>
   </si>
   <si>
-    <t>Chat</t>
-  </si>
-  <si>
-    <t>Input message to chat box.</t>
-  </si>
-  <si>
     <t>Send message</t>
   </si>
   <si>
-    <t>Click "Send" or press Enter.</t>
-  </si>
-  <si>
     <t>Displays message on chat box.</t>
+  </si>
+  <si>
+    <t>Check display:
+-Browser: Firefox, Chrome</t>
+  </si>
+  <si>
+    <t>Click "Message" icon.</t>
+  </si>
+  <si>
+    <t>Press Enter.</t>
+  </si>
+  <si>
+    <t>Input content</t>
+  </si>
+  <si>
+    <t>Hide friend list</t>
+  </si>
+  <si>
+    <t>List friend is disapeared</t>
+  </si>
+  <si>
+    <t>Input message in textbox of chat box.</t>
   </si>
 </sst>
 </file>
@@ -3061,6 +3060,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3081,24 +3098,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3496,6 +3495,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>372005</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>105457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="723900"/>
+          <a:ext cx="3801005" cy="4887007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219615</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267325" y="723900"/>
+          <a:ext cx="3867690" cy="3820058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -6199,14 +6291,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6221,57 +6313,57 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="C4" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="C5" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="C6" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6294,10 +6386,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6313,12 +6405,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6327,13 +6419,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6341,8 +6433,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6350,8 +6442,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6359,8 +6451,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6368,8 +6460,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6377,8 +6469,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6386,6 +6478,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6393,12 +6491,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6412,10 +6504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6536,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6605,23 +6697,23 @@
         <v>37</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="103.5" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
       <c r="G10" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="49" t="s">
         <v>35</v>
@@ -6633,21 +6725,21 @@
         <v>37</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
       <c r="A11" s="45"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -6661,12 +6753,12 @@
       <c r="A12" s="47"/>
       <c r="B12" s="48"/>
       <c r="C12" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6679,13 +6771,13 @@
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6697,23 +6789,23 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="43.5" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="48"/>
       <c r="C14" s="49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6725,23 +6817,23 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="42" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="60"/>
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6753,23 +6845,23 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L15" s="62" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="44.25" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="60"/>
       <c r="E16" s="64"/>
       <c r="F16" s="63"/>
       <c r="G16" s="63" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6781,23 +6873,23 @@
         <v>37</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="44" customFormat="1" ht="36" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="60"/>
       <c r="E17" s="64"/>
       <c r="F17" s="63"/>
       <c r="G17" s="63" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6809,10 +6901,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="L17" s="56" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1">
@@ -6827,9 +6919,9 @@
       <c r="I18" s="68"/>
       <c r="J18" s="69"/>
       <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-    </row>
-    <row r="19" spans="1:12" s="44" customFormat="1">
+      <c r="L18" s="73"/>
+    </row>
+    <row r="19" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A19" s="65"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -6843,9 +6935,9 @@
       <c r="K19" s="67"/>
       <c r="L19" s="73"/>
     </row>
-    <row r="20" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
+    <row r="20" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="66"/>
       <c r="D20" s="66"/>
       <c r="E20" s="67"/>
@@ -6855,11 +6947,11 @@
       <c r="I20" s="68"/>
       <c r="J20" s="69"/>
       <c r="K20" s="67"/>
-      <c r="L20" s="73"/>
-    </row>
-    <row r="21" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
+      <c r="L20" s="67"/>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1">
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="66"/>
       <c r="D21" s="66"/>
       <c r="E21" s="67"/>
@@ -6869,7 +6961,7 @@
       <c r="I21" s="68"/>
       <c r="J21" s="69"/>
       <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
+      <c r="L21" s="73"/>
     </row>
     <row r="22" spans="1:12" s="44" customFormat="1">
       <c r="A22" s="65"/>
@@ -6887,35 +6979,35 @@
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1">
       <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="66"/>
       <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="73"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1">
       <c r="A24" s="65"/>
       <c r="B24" s="74"/>
       <c r="C24" s="66"/>
       <c r="D24" s="66"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
     </row>
     <row r="25" spans="1:12" s="44" customFormat="1">
       <c r="A25" s="65"/>
-      <c r="B25" s="74"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="66"/>
       <c r="D25" s="66"/>
       <c r="E25" s="67"/>
@@ -6925,9 +7017,9 @@
       <c r="I25" s="68"/>
       <c r="J25" s="69"/>
       <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-    </row>
-    <row r="26" spans="1:12" s="44" customFormat="1">
+      <c r="L25" s="73"/>
+    </row>
+    <row r="26" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="65"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
@@ -6941,14 +7033,14 @@
       <c r="K26" s="67"/>
       <c r="L26" s="73"/>
     </row>
-    <row r="27" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="27" spans="1:12" s="44" customFormat="1">
       <c r="A27" s="65"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
       <c r="D27" s="66"/>
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
-      <c r="G27" s="72"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="66"/>
       <c r="I27" s="68"/>
       <c r="J27" s="69"/>
@@ -6962,12 +7054,12 @@
       <c r="D28" s="66"/>
       <c r="E28" s="67"/>
       <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="66"/>
       <c r="I28" s="68"/>
       <c r="J28" s="69"/>
       <c r="K28" s="67"/>
-      <c r="L28" s="73"/>
+      <c r="L28" s="67"/>
     </row>
     <row r="29" spans="1:12" s="44" customFormat="1">
       <c r="A29" s="65"/>
@@ -6981,7 +7073,7 @@
       <c r="I29" s="68"/>
       <c r="J29" s="69"/>
       <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
+      <c r="L29" s="75"/>
     </row>
     <row r="30" spans="1:12" s="44" customFormat="1">
       <c r="A30" s="65"/>
@@ -6990,12 +7082,12 @@
       <c r="D30" s="66"/>
       <c r="E30" s="67"/>
       <c r="F30" s="67"/>
-      <c r="G30" s="72"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="66"/>
       <c r="I30" s="68"/>
       <c r="J30" s="69"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="75"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
     </row>
     <row r="31" spans="1:12" s="44" customFormat="1">
       <c r="A31" s="65"/>
@@ -7004,7 +7096,7 @@
       <c r="D31" s="66"/>
       <c r="E31" s="67"/>
       <c r="F31" s="67"/>
-      <c r="G31" s="76"/>
+      <c r="G31" s="72"/>
       <c r="H31" s="66"/>
       <c r="I31" s="68"/>
       <c r="J31" s="69"/>
@@ -7025,7 +7117,7 @@
       <c r="K32" s="73"/>
       <c r="L32" s="73"/>
     </row>
-    <row r="33" spans="1:12" s="44" customFormat="1">
+    <row r="33" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="65"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
@@ -7039,7 +7131,7 @@
       <c r="K33" s="73"/>
       <c r="L33" s="73"/>
     </row>
-    <row r="34" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="34" spans="1:12" s="44" customFormat="1">
       <c r="A34" s="65"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
@@ -7084,8 +7176,8 @@
     <row r="37" spans="1:12" s="44" customFormat="1">
       <c r="A37" s="65"/>
       <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="67"/>
       <c r="F37" s="67"/>
       <c r="G37" s="72"/>
@@ -7098,8 +7190,8 @@
     <row r="38" spans="1:12" s="44" customFormat="1">
       <c r="A38" s="65"/>
       <c r="B38" s="66"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
       <c r="G38" s="72"/>
@@ -7138,8 +7230,8 @@
       <c r="L40" s="73"/>
     </row>
     <row r="41" spans="1:12" s="44" customFormat="1">
-      <c r="A41" s="65"/>
-      <c r="B41" s="66"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="66"/>
       <c r="D41" s="66"/>
       <c r="E41" s="67"/>
@@ -7152,8 +7244,8 @@
       <c r="L41" s="73"/>
     </row>
     <row r="42" spans="1:12" s="44" customFormat="1">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="66"/>
       <c r="D42" s="66"/>
       <c r="E42" s="67"/>
@@ -7181,31 +7273,31 @@
     </row>
     <row r="44" spans="1:12" s="44" customFormat="1">
       <c r="A44" s="65"/>
-      <c r="B44" s="66"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="66"/>
       <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1">
       <c r="A45" s="65"/>
       <c r="B45" s="74"/>
       <c r="C45" s="66"/>
       <c r="D45" s="66"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
     </row>
     <row r="46" spans="1:12" s="44" customFormat="1">
       <c r="A46" s="65"/>
@@ -7219,7 +7311,7 @@
       <c r="I46" s="68"/>
       <c r="J46" s="69"/>
       <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
+      <c r="L46" s="73"/>
     </row>
     <row r="47" spans="1:12" s="44" customFormat="1">
       <c r="A47" s="65"/>
@@ -7242,7 +7334,7 @@
       <c r="D48" s="66"/>
       <c r="E48" s="67"/>
       <c r="F48" s="67"/>
-      <c r="G48" s="72"/>
+      <c r="G48" s="67"/>
       <c r="H48" s="66"/>
       <c r="I48" s="68"/>
       <c r="J48" s="69"/>
@@ -7252,7 +7344,7 @@
     <row r="49" spans="1:12" s="44" customFormat="1">
       <c r="A49" s="65"/>
       <c r="B49" s="74"/>
-      <c r="C49" s="66"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="66"/>
       <c r="E49" s="67"/>
       <c r="F49" s="67"/>
@@ -7294,7 +7386,7 @@
     <row r="52" spans="1:12" s="44" customFormat="1">
       <c r="A52" s="65"/>
       <c r="B52" s="74"/>
-      <c r="C52" s="74"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="66"/>
       <c r="E52" s="67"/>
       <c r="F52" s="67"/>
@@ -7307,7 +7399,7 @@
     </row>
     <row r="53" spans="1:12" s="44" customFormat="1">
       <c r="A53" s="65"/>
-      <c r="B53" s="74"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="66"/>
       <c r="D53" s="66"/>
       <c r="E53" s="67"/>
@@ -7321,7 +7413,7 @@
     </row>
     <row r="54" spans="1:12" s="44" customFormat="1">
       <c r="A54" s="65"/>
-      <c r="B54" s="66"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="66"/>
       <c r="D54" s="66"/>
       <c r="E54" s="67"/>
@@ -7350,8 +7442,8 @@
     <row r="56" spans="1:12" s="44" customFormat="1">
       <c r="A56" s="65"/>
       <c r="B56" s="74"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
       <c r="E56" s="67"/>
       <c r="F56" s="67"/>
       <c r="G56" s="67"/>
@@ -7359,14 +7451,14 @@
       <c r="I56" s="68"/>
       <c r="J56" s="69"/>
       <c r="K56" s="67"/>
-      <c r="L56" s="73"/>
+      <c r="L56" s="67"/>
     </row>
     <row r="57" spans="1:12" s="44" customFormat="1">
       <c r="A57" s="65"/>
       <c r="B57" s="74"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="67"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="72"/>
       <c r="F57" s="67"/>
       <c r="G57" s="67"/>
       <c r="H57" s="66"/>
@@ -7377,7 +7469,7 @@
     </row>
     <row r="58" spans="1:12" s="44" customFormat="1">
       <c r="A58" s="65"/>
-      <c r="B58" s="74"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="69"/>
       <c r="D58" s="66"/>
       <c r="E58" s="72"/>
@@ -7396,16 +7488,16 @@
       <c r="D59" s="66"/>
       <c r="E59" s="72"/>
       <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
+      <c r="G59" s="72"/>
       <c r="H59" s="66"/>
       <c r="I59" s="68"/>
       <c r="J59" s="69"/>
-      <c r="K59" s="67"/>
+      <c r="K59" s="73"/>
       <c r="L59" s="67"/>
     </row>
     <row r="60" spans="1:12" s="44" customFormat="1">
-      <c r="A60" s="65"/>
-      <c r="B60" s="66"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
       <c r="C60" s="69"/>
       <c r="D60" s="66"/>
       <c r="E60" s="72"/>
@@ -7414,16 +7506,16 @@
       <c r="H60" s="66"/>
       <c r="I60" s="68"/>
       <c r="J60" s="69"/>
-      <c r="K60" s="73"/>
+      <c r="K60" s="67"/>
       <c r="L60" s="67"/>
     </row>
     <row r="61" spans="1:12" s="44" customFormat="1">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="69"/>
       <c r="D61" s="66"/>
       <c r="E61" s="72"/>
-      <c r="F61" s="67"/>
+      <c r="F61" s="72"/>
       <c r="G61" s="72"/>
       <c r="H61" s="66"/>
       <c r="I61" s="68"/>
@@ -7434,8 +7526,8 @@
     <row r="62" spans="1:12" s="44" customFormat="1">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="66"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="72"/>
       <c r="F62" s="72"/>
       <c r="G62" s="72"/>
@@ -7448,52 +7540,52 @@
     <row r="63" spans="1:12" s="44" customFormat="1">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="70"/>
     </row>
     <row r="64" spans="1:12" s="44" customFormat="1">
       <c r="A64" s="38"/>
       <c r="B64" s="38"/>
       <c r="C64" s="69"/>
       <c r="D64" s="66"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="70"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="77"/>
     </row>
     <row r="65" spans="1:13" s="44" customFormat="1">
       <c r="A65" s="38"/>
       <c r="B65" s="38"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="66"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
       <c r="E65" s="77"/>
       <c r="F65" s="67"/>
       <c r="G65" s="77"/>
       <c r="H65" s="66"/>
       <c r="I65" s="68"/>
       <c r="J65" s="69"/>
-      <c r="K65" s="77"/>
+      <c r="K65" s="78"/>
       <c r="L65" s="77"/>
     </row>
     <row r="66" spans="1:13" s="44" customFormat="1">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="66"/>
       <c r="E66" s="77"/>
-      <c r="F66" s="67"/>
+      <c r="F66" s="77"/>
       <c r="G66" s="77"/>
       <c r="H66" s="66"/>
       <c r="I66" s="68"/>
@@ -7502,8 +7594,8 @@
       <c r="L66" s="77"/>
     </row>
     <row r="67" spans="1:13" s="44" customFormat="1">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="69"/>
       <c r="D67" s="66"/>
       <c r="E67" s="77"/>
@@ -7518,8 +7610,8 @@
     <row r="68" spans="1:13" s="44" customFormat="1">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="66"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
       <c r="E68" s="77"/>
       <c r="F68" s="77"/>
       <c r="G68" s="77"/>
@@ -7530,39 +7622,40 @@
       <c r="L68" s="77"/>
     </row>
     <row r="69" spans="1:13" s="44" customFormat="1">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="78"/>
-      <c r="L69" s="77"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="71"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="71"/>
+      <c r="L69" s="70"/>
+      <c r="M69" s="37"/>
     </row>
     <row r="70" spans="1:13" s="44" customFormat="1">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="66"/>
       <c r="D70" s="66"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="70"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="77"/>
       <c r="M70" s="37"/>
     </row>
-    <row r="71" spans="1:13" s="44" customFormat="1">
+    <row r="71" spans="1:13">
       <c r="A71" s="38"/>
       <c r="B71" s="38"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
       <c r="E71" s="77"/>
       <c r="F71" s="67"/>
       <c r="G71" s="77"/>
@@ -7571,38 +7664,38 @@
       <c r="J71" s="69"/>
       <c r="K71" s="78"/>
       <c r="L71" s="77"/>
-      <c r="M71" s="37"/>
+      <c r="M71" s="44"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="69"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="77"/>
-      <c r="M72" s="44"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
+      <c r="A72" s="70"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
+      <c r="K72" s="71"/>
+      <c r="L72" s="70"/>
+    </row>
+    <row r="73" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A73" s="65"/>
+      <c r="B73" s="74"/>
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="70"/>
-    </row>
-    <row r="74" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E73" s="77"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="77"/>
+      <c r="M73" s="37"/>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="65"/>
       <c r="B74" s="74"/>
       <c r="C74" s="38"/>
@@ -7615,35 +7708,34 @@
       <c r="J74" s="69"/>
       <c r="K74" s="78"/>
       <c r="L74" s="77"/>
-      <c r="M74" s="37"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="65"/>
-      <c r="B75" s="74"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="66"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="69"/>
-      <c r="K75" s="78"/>
-      <c r="L75" s="77"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="70"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="70"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="67"/>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="38"/>
@@ -7652,43 +7744,44 @@
       <c r="D77" s="38"/>
       <c r="E77" s="67"/>
       <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
+      <c r="G77" s="72"/>
       <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="79"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="69"/>
       <c r="K77" s="67"/>
       <c r="L77" s="67"/>
+      <c r="M77" s="44"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="68"/>
-      <c r="J78" s="69"/>
-      <c r="K78" s="67"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="44"/>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="71"/>
+      <c r="L78" s="70"/>
+    </row>
+    <row r="79" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="70"/>
-    </row>
-    <row r="80" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="37"/>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="38"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
@@ -7701,7 +7794,7 @@
       <c r="J80" s="38"/>
       <c r="K80" s="38"/>
       <c r="L80" s="38"/>
-      <c r="M80" s="37"/>
+      <c r="M80" s="44"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="38"/>
@@ -7716,13 +7809,12 @@
       <c r="J81" s="38"/>
       <c r="K81" s="38"/>
       <c r="L81" s="38"/>
-      <c r="M81" s="44"/>
-    </row>
-    <row r="82" spans="1:13">
+    </row>
+    <row r="82" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
@@ -7731,8 +7823,9 @@
       <c r="J82" s="38"/>
       <c r="K82" s="38"/>
       <c r="L82" s="38"/>
-    </row>
-    <row r="83" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M82" s="37"/>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="66"/>
@@ -7745,13 +7838,11 @@
       <c r="J83" s="38"/>
       <c r="K83" s="38"/>
       <c r="L83" s="38"/>
-      <c r="M83" s="37"/>
+      <c r="M83" s="44"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
       <c r="E84" s="38"/>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -7762,9 +7853,11 @@
       <c r="L84" s="38"/>
       <c r="M84" s="44"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
       <c r="E85" s="38"/>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -7773,11 +7866,11 @@
       <c r="J85" s="38"/>
       <c r="K85" s="38"/>
       <c r="L85" s="38"/>
-      <c r="M85" s="44"/>
+      <c r="M85" s="37"/>
     </row>
     <row r="86" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="74"/>
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
       <c r="E86" s="38"/>
@@ -7790,11 +7883,9 @@
       <c r="L86" s="38"/>
       <c r="M86" s="37"/>
     </row>
-    <row r="87" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="87" spans="1:13">
       <c r="A87" s="65"/>
-      <c r="B87" s="74"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
+      <c r="B87" s="66"/>
       <c r="E87" s="38"/>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -7803,11 +7894,8 @@
       <c r="J87" s="38"/>
       <c r="K87" s="38"/>
       <c r="L87" s="38"/>
-      <c r="M87" s="37"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="65"/>
-      <c r="B88" s="66"/>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
@@ -7818,18 +7906,18 @@
       <c r="L88" s="38"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="67"/>
     </row>
     <row r="90" spans="1:13">
       <c r="E90" s="72"/>
-      <c r="F90" s="67"/>
+      <c r="F90" s="72"/>
       <c r="G90" s="72"/>
       <c r="H90" s="66"/>
       <c r="I90" s="68"/>
@@ -7837,25 +7925,15 @@
       <c r="K90" s="67"/>
       <c r="L90" s="67"/>
     </row>
-    <row r="91" spans="1:13">
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="68"/>
-      <c r="J91" s="69"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="67"/>
-    </row>
+    <row r="94" spans="1:13" ht="37.5" customHeight="1"/>
     <row r="95" spans="1:13" ht="37.5" customHeight="1"/>
     <row r="96" spans="1:13" ht="37.5" customHeight="1"/>
     <row r="97" ht="37.5" customHeight="1"/>
-    <row r="98" ht="37.5" customHeight="1"/>
-    <row r="100" ht="18" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="105" ht="30" customHeight="1"/>
-    <row r="109" ht="44.25" customHeight="1"/>
-    <row r="110" ht="45" customHeight="1"/>
+    <row r="99" ht="18" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="104" ht="30" customHeight="1"/>
+    <row r="108" ht="44.25" customHeight="1"/>
+    <row r="109" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -7873,19 +7951,19 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I76 I45 I73 I70 I64 I79">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I75 I44 I72 I69 I63 I78">
       <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J76 J45 J73 J70 J64 J79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J75 J44 J72 J69 J63 J78">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H90:H91 H25:H76 H78:H79 H8:H10 H13:H23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H89:H90 H24:H75 H77:H78 H8:H10 H13:H22">
       <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I90:I91 I25:I44 I46:I63 I74:I75 I71:I72 I65:I69 I78 I8:I10 I13:I23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I89:I90 I24:I43 I45:I62 I73:I74 I70:I71 I64:I68 I77 I8:I10 I13:I22">
       <formula1>品質特性</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J65:J69 J71:J72 J78 J74:J75 J46:J63 J25:J44 J90:J91 J8:J10 J13:J23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J64:J68 J70:J71 J77 J73:J74 J45:J62 J24:J43 J89:J90 J8:J10 J13:J22">
       <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7899,20 +7977,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7935,25 +8014,25 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="82" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="G2" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="H2" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="I2" s="82" t="s">
         <v>53</v>
-      </c>
-      <c r="I2" s="82" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -7965,70 +8044,70 @@
         <v>37</v>
       </c>
       <c r="E3" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="G3" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="H3" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="I3" s="85" t="s">
         <v>58</v>
-      </c>
-      <c r="I3" s="85" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="84"/>
       <c r="D4" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="F4" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="G4" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="H4" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="I4" s="86" t="s">
         <v>64</v>
-      </c>
-      <c r="I4" s="86" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="84"/>
       <c r="F5" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="84"/>
       <c r="H5" s="86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="84"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="84"/>
       <c r="D6" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="84"/>
       <c r="F6" s="84"/>
@@ -8038,7 +8117,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="84"/>
@@ -8050,7 +8129,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
@@ -8197,7 +8276,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -8205,13 +8284,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="88" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -8220,7 +8299,7 @@
       </c>
       <c r="C5" s="120"/>
       <c r="D5" s="89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="89"/>
     </row>
@@ -8230,358 +8309,358 @@
         <v>37</v>
       </c>
       <c r="D6" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="91" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="91" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="24" customHeight="1">
       <c r="B7" s="117"/>
       <c r="C7" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="E7" s="92" t="s">
         <v>76</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21.75" customHeight="1">
       <c r="B8" s="117"/>
       <c r="C8" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="E8" s="92" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="117"/>
       <c r="C9" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="E9" s="94" t="s">
         <v>82</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="23.25" customHeight="1">
       <c r="B10" s="118"/>
       <c r="C10" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="92" t="s">
         <v>84</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.25" customHeight="1">
       <c r="B11" s="119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="120"/>
       <c r="D11" s="89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="89"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="116"/>
       <c r="C12" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="96" t="s">
-        <v>88</v>
-      </c>
       <c r="E12" s="96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="117"/>
       <c r="C13" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="E13" s="91" t="s">
         <v>90</v>
-      </c>
-      <c r="E13" s="91" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="38.25">
       <c r="B14" s="117"/>
       <c r="C14" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="E14" s="92" t="s">
         <v>93</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="118"/>
       <c r="C15" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="96"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="120"/>
       <c r="D16" s="89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="89"/>
     </row>
     <row r="17" spans="2:5" ht="25.5">
       <c r="B17" s="116"/>
       <c r="C17" s="90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="91" t="s">
         <v>97</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5">
       <c r="B18" s="117"/>
       <c r="C18" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="97" t="s">
         <v>99</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>100</v>
       </c>
       <c r="E18" s="96"/>
     </row>
     <row r="19" spans="2:5" ht="38.25">
       <c r="B19" s="117"/>
       <c r="C19" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="E19" s="92" t="s">
         <v>102</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="117"/>
       <c r="C20" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="96" t="s">
         <v>104</v>
-      </c>
-      <c r="D20" s="96" t="s">
-        <v>105</v>
       </c>
       <c r="E20" s="96"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="118"/>
       <c r="C21" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="91"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="119" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="120"/>
       <c r="D22" s="89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="89"/>
     </row>
     <row r="23" spans="2:5" ht="51">
       <c r="B23" s="116"/>
       <c r="C23" s="90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="91" t="s">
         <v>108</v>
-      </c>
-      <c r="E23" s="91" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="25.5">
       <c r="B24" s="117"/>
       <c r="C24" s="90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="92" t="s">
         <v>110</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="118"/>
       <c r="C25" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="96"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="120"/>
       <c r="D26" s="89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="89"/>
     </row>
     <row r="27" spans="2:5" ht="127.5">
       <c r="B27" s="116"/>
       <c r="C27" s="90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="92" t="s">
         <v>113</v>
-      </c>
-      <c r="E27" s="92" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="117"/>
       <c r="C28" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="96" t="s">
-        <v>116</v>
-      </c>
       <c r="E28" s="96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="117"/>
       <c r="C29" s="90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="91" t="s">
         <v>117</v>
-      </c>
-      <c r="E29" s="91" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="117"/>
       <c r="C30" s="90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="91" t="s">
         <v>119</v>
-      </c>
-      <c r="E30" s="91" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="118"/>
       <c r="C31" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="96"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="120"/>
       <c r="D32" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E32" s="89"/>
     </row>
     <row r="33" spans="2:5" ht="38.25">
       <c r="B33" s="116"/>
       <c r="C33" s="98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="100" t="s">
         <v>122</v>
-      </c>
-      <c r="E33" s="100" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="117"/>
       <c r="C34" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="E34" s="94" t="s">
         <v>125</v>
-      </c>
-      <c r="E34" s="94" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="117"/>
       <c r="C35" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="96"/>
     </row>
     <row r="36" spans="2:5" ht="25.5">
       <c r="B36" s="117"/>
       <c r="C36" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="92" t="s">
         <v>128</v>
-      </c>
-      <c r="E36" s="92" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="118"/>
       <c r="C37" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" s="96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
